--- a/zib2017-2020/mapping/excel/Woonsituatie.xlsx
+++ b/zib2017-2020/mapping/excel/Woonsituatie.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$6</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -216,7 +219,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -511,6 +543,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -735,6 +774,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O6"/>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/Woonsituatie.xlsx
+++ b/zib2017-2020/mapping/excel/Woonsituatie.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2661F50-4334-0B44-8B09-2B7554E716A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>ZibName</t>
   </si>
@@ -125,9 +131,6 @@
   </si>
   <si>
     <t>Aan het model twee elementen toegevoegd, WoningAanpassing en WoonOmstandigheid.</t>
-  </si>
-  <si>
-    <t>NO CHANGE</t>
   </si>
   <si>
     <t>VALUESET CHANGES</t>
@@ -157,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +226,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -237,26 +247,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -362,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,21 +550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -617,11 +632,8 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -640,11 +652,8 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -676,22 +685,22 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -720,19 +729,19 @@
         <v>35</v>
       </c>
       <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -761,31 +770,31 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O6"/>
+  <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Woonsituatie.xlsx
+++ b/zib2017-2020/mapping/excel/Woonsituatie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2661F50-4334-0B44-8B09-2B7554E716A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C13FE3-3334-A84C-8CE8-E36B07A4F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>ZibName</t>
   </si>
@@ -142,19 +155,16 @@
     <t>Low</t>
   </si>
   <si>
-    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
-  </si>
-  <si>
-    <t>IF [blank]source-&gt;target ELSE [toon en stuur de inhoud van dit data item als vrije tekst naar een 2017 ontvanger]</t>
+    <t>existing valueset [valuesetname] changed in [baseline 2020]</t>
+  </si>
+  <si>
+    <t>IF source &lt;&gt; [blank] THEN source -&gt; target=[non-zib item]</t>
   </si>
 </sst>
 </file>
@@ -553,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,13 +701,13 @@
         <v>38</v>
       </c>
       <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -735,10 +745,10 @@
         <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -776,10 +786,10 @@
         <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
